--- a/lightweight domain sample/resources/domains/countries.xlsx
+++ b/lightweight domain sample/resources/domains/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IBM\GitHub\dc-lightweight-domain\lightweight domain sample\resources\domains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95E085-ACBB-4191-A91C-691F14D16446}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA78529-CCAE-4B11-85CA-B20D306D7864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="26820" windowHeight="6585" xr2:uid="{191EE4D9-30B1-4391-94EB-FEF0069EDE9A}"/>
+    <workbookView xWindow="90" yWindow="5730" windowWidth="16185" windowHeight="8700" xr2:uid="{191EE4D9-30B1-4391-94EB-FEF0069EDE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -625,6 +622,12 @@
   </si>
   <si>
     <t>return "AUS";</t>
+  </si>
+  <si>
+    <t>return "MALY"</t>
+  </si>
+  <si>
+    <t>Labels</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
   <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,13 +1003,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,7 +1122,7 @@
         <v>Australia</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1161,7 +1164,7 @@
         <v>return "BAHA";</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,7 +1242,7 @@
         <v>return "BENI";</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,7 @@
         <v>return "BURK";</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,7 +1411,7 @@
         <v>return "CAYM";</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1502,7 @@
         <v>return "CONG";</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>return "GAMB";</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
         <v>return "IVOR";</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,9 +2342,8 @@
         <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
-      <c r="B104" t="str">
-        <f t="shared" si="3"/>
-        <v>return "MALA";</v>
+      <c r="B104" t="s">
+        <v>196</v>
       </c>
       <c r="C104" t="s">
         <v>95</v>
@@ -2565,7 +2567,7 @@
         <v>return "NETH";</v>
       </c>
       <c r="C121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2615,7 @@
         <v>Nigeria</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
         <v>115</v>
@@ -2976,7 +2978,7 @@
         <v>Slovakia</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" t="s">
         <v>143</v>
@@ -3005,7 +3007,7 @@
         <v>return "SOLO";</v>
       </c>
       <c r="C155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +3029,7 @@
         <v>South_Africa</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C157" t="s">
         <v>146</v>
@@ -3043,7 +3045,7 @@
         <v>return "SOUT";</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3260,7 +3262,7 @@
         <v>Turkmenistan</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
         <v>163</v>
@@ -3311,10 +3313,10 @@
         <v>United_Arab_Emirates</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,10 +3325,10 @@
         <v>United_Kingdom</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
